--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064834.456065474</v>
+        <v>4066594.98636826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>44.86551183765354</v>
+        <v>44.86551183765348</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>63.03480660476406</v>
+        <v>63.03480660476362</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.6161309521169</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>64.94722025971666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>33.93089591116166</v>
+        <v>33.93089591116122</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085811999</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>238.835674028268</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4333,19 +4333,19 @@
         <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723718</v>
+        <v>578.8852367147448</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905639</v>
+        <v>816.5080179329368</v>
       </c>
       <c r="M2" t="n">
-        <v>1333.746375310458</v>
+        <v>1457.531227552831</v>
       </c>
       <c r="N2" t="n">
-        <v>1639.221481546043</v>
+        <v>1763.006333788416</v>
       </c>
       <c r="O2" t="n">
-        <v>1914.337700862678</v>
+        <v>2038.122553105051</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394154</v>
@@ -4558,34 +4558,34 @@
         <v>162.6090242979038</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4631,37 +4631,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>301.946747225829</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>621.3977863318792</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.950964871589</v>
+        <v>1045.950964871588</v>
       </c>
       <c r="C7" t="n">
-        <v>877.0147819436818</v>
+        <v>877.0147819436813</v>
       </c>
       <c r="D7" t="n">
-        <v>726.898142531346</v>
+        <v>726.8981425313456</v>
       </c>
       <c r="E7" t="n">
-        <v>578.9850489489529</v>
+        <v>578.9850489489525</v>
       </c>
       <c r="F7" t="n">
-        <v>432.0951014510425</v>
+        <v>432.0951014510421</v>
       </c>
       <c r="G7" t="n">
-        <v>264.1189127129319</v>
+        <v>264.1189127129314</v>
       </c>
       <c r="H7" t="n">
-        <v>115.4713771458137</v>
+        <v>115.4713771458133</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4780,55 +4780,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.443666017298</v>
+        <v>962.841999989603</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>593.8794830491913</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>593.8794830491913</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>593.8794830491913</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228372</v>
+        <v>182.8935782595838</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281973</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104777</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
         <v>2465.815585560731</v>
@@ -4843,13 +4843,13 @@
         <v>2465.815585560731</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.046930290617</v>
+        <v>2113.046930290616</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.581172029537</v>
+        <v>1739.581172029536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.581172029537</v>
+        <v>1349.441840053725</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186012</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349159</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452984</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2327.030265370218</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4941,46 +4941,46 @@
         <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>847.6168923541844</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D10" t="n">
-        <v>697.5002529418487</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E10" t="n">
-        <v>549.5871593594555</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F10" t="n">
-        <v>402.6972118615452</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G10" t="n">
-        <v>234.7210231234345</v>
+        <v>234.7210231234341</v>
       </c>
       <c r="H10" t="n">
-        <v>86.07348755631637</v>
+        <v>86.07348755631591</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168612</v>
@@ -5035,7 +5035,7 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683105</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
         <v>1859.536823237711</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
         <v>484.8112968429803</v>
@@ -5190,61 +5190,61 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5995,22 +5995,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,28 +6223,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,28 +6460,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6548,16 +6548,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>119.290296770379</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7785,16 +7785,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>125.0352042852252</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>125.0352042852251</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>22.36271716134888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>299.8549597144495</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017855</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>13.30196929556001</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526154</v>
       </c>
     </row>
     <row r="14">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="L2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898926</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042351</v>
+        <v>130884.4569042355</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695022</v>
+        <v>6287.480531694998</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
@@ -26450,13 +26450,13 @@
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26478,7 +26478,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367772.0797232667</v>
+        <v>-367772.0797232668</v>
       </c>
       <c r="C6" t="n">
-        <v>425729.5659876334</v>
+        <v>425729.5659876336</v>
       </c>
       <c r="D6" t="n">
-        <v>598493.9257775261</v>
+        <v>598493.9257775256</v>
       </c>
       <c r="E6" t="n">
-        <v>198500.3423342963</v>
+        <v>198812.983663217</v>
       </c>
       <c r="F6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089693</v>
       </c>
       <c r="G6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="H6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="I6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="J6" t="n">
-        <v>529975.1932539988</v>
+        <v>530287.8345829203</v>
       </c>
       <c r="K6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089681</v>
       </c>
       <c r="L6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="M6" t="n">
-        <v>568504.7531758118</v>
+        <v>568817.3945047328</v>
       </c>
       <c r="N6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="O6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="P6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089684</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152234</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,13 +26986,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644023</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>366.6595115442158</v>
+        <v>366.6595115442159</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.45585290823704</v>
+        <v>41.45585290823752</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.1177107113637</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>346.5778031221527</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.55976360183948</v>
+        <v>70.5597636018399</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28095,13 +28095,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>301.1823051500298</v>
+        <v>301.1823051500289</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>163.5723821283055</v>
+        <v>163.572382128305</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -33991,7 +33991,7 @@
         <v>606.5820696732821</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>288.4645094013823</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34716,7 +34716,7 @@
         <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>327.3628076075518</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
         <v>315.5952546185461</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>322.6778172788386</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>551.8516545275997</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949296</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35266,16 +35266,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>237.4056613270733</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>159.0482712280115</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>25.73094315394657</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,7 +37639,7 @@
         <v>463.9858252288377</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
